--- a/Code/Results/Cases/Case_4_187/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_187/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.31558862735358</v>
+        <v>12.41908946361288</v>
       </c>
       <c r="C2">
-        <v>13.07401896322406</v>
+        <v>7.626184542585443</v>
       </c>
       <c r="D2">
-        <v>10.52564660403832</v>
+        <v>14.53761406220659</v>
       </c>
       <c r="E2">
-        <v>10.29626068345759</v>
+        <v>15.753816265174</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>24.54505238116464</v>
+        <v>30.06075141182773</v>
       </c>
       <c r="H2">
-        <v>8.881439567535725</v>
+        <v>14.53618689881979</v>
       </c>
       <c r="I2">
-        <v>12.18405889969938</v>
+        <v>20.18342821128782</v>
       </c>
       <c r="J2">
-        <v>5.219475839641665</v>
+        <v>9.23275033487905</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.79810894134341</v>
+        <v>17.17873311764749</v>
       </c>
       <c r="N2">
-        <v>11.80063979998963</v>
+        <v>17.39541469407961</v>
       </c>
       <c r="O2">
-        <v>14.97673721592531</v>
+        <v>22.31859631746758</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.1170727594754</v>
+        <v>11.93344286615437</v>
       </c>
       <c r="C3">
-        <v>12.23797323081962</v>
+        <v>7.206989061481051</v>
       </c>
       <c r="D3">
-        <v>10.20900713638922</v>
+        <v>14.5219544028458</v>
       </c>
       <c r="E3">
-        <v>10.12645829982494</v>
+        <v>15.77144270344167</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>23.72063850570268</v>
+        <v>30.03187385834743</v>
       </c>
       <c r="H3">
-        <v>8.862496031085808</v>
+        <v>14.57642666397888</v>
       </c>
       <c r="I3">
-        <v>12.31009202558486</v>
+        <v>20.27646498285445</v>
       </c>
       <c r="J3">
-        <v>5.256721248549905</v>
+        <v>9.254521919266084</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.04332017812253</v>
+        <v>17.03427758976533</v>
       </c>
       <c r="N3">
-        <v>11.93142273158284</v>
+        <v>17.44196402964048</v>
       </c>
       <c r="O3">
-        <v>14.77148144245433</v>
+        <v>22.36616407340034</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.33749292257793</v>
+        <v>11.62608769536219</v>
       </c>
       <c r="C4">
-        <v>11.69493404290145</v>
+        <v>6.936858536567611</v>
       </c>
       <c r="D4">
-        <v>10.01649255220257</v>
+        <v>14.51534714894636</v>
       </c>
       <c r="E4">
-        <v>10.02773821518747</v>
+        <v>15.78520815651824</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>23.22880162535948</v>
+        <v>30.02451225307438</v>
       </c>
       <c r="H4">
-        <v>8.857473309871567</v>
+        <v>14.60373969868792</v>
       </c>
       <c r="I4">
-        <v>12.39911230444933</v>
+        <v>20.33785371014577</v>
       </c>
       <c r="J4">
-        <v>5.281392986519168</v>
+        <v>9.268781138643474</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.56355146126546</v>
+        <v>16.94763064336586</v>
       </c>
       <c r="N4">
-        <v>12.01507231162202</v>
+        <v>17.47227168037263</v>
       </c>
       <c r="O4">
-        <v>14.6583598575828</v>
+        <v>22.40071933365079</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.00878554738787</v>
+        <v>11.49871613129772</v>
       </c>
       <c r="C5">
-        <v>11.46616412128798</v>
+        <v>6.823667463309212</v>
       </c>
       <c r="D5">
-        <v>9.938624847784155</v>
+        <v>14.51341362888146</v>
       </c>
       <c r="E5">
-        <v>9.98891495441635</v>
+        <v>15.79155742015599</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>23.03223765925542</v>
+        <v>30.02412007244627</v>
       </c>
       <c r="H5">
-        <v>8.857034184933561</v>
+        <v>14.61552450835436</v>
       </c>
       <c r="I5">
-        <v>12.43817241362266</v>
+        <v>20.3639408476037</v>
       </c>
       <c r="J5">
-        <v>5.29189243333702</v>
+        <v>9.274816412403696</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.36416096005812</v>
+        <v>16.91286838421974</v>
       </c>
       <c r="N5">
-        <v>12.04999521677008</v>
+        <v>17.48505720807279</v>
       </c>
       <c r="O5">
-        <v>14.61545786363273</v>
+        <v>22.41614256108532</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.9535372545587</v>
+        <v>11.47744378693007</v>
       </c>
       <c r="C6">
-        <v>11.4277253971375</v>
+        <v>6.804687404565072</v>
       </c>
       <c r="D6">
-        <v>9.925733357271286</v>
+        <v>14.51313847740805</v>
       </c>
       <c r="E6">
-        <v>9.982553605021678</v>
+        <v>15.79265637717078</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>22.99983905285885</v>
+        <v>30.02421240674892</v>
       </c>
       <c r="H6">
-        <v>8.857056766043071</v>
+        <v>14.61752087794449</v>
       </c>
       <c r="I6">
-        <v>12.44482242027993</v>
+        <v>20.3683372254074</v>
       </c>
       <c r="J6">
-        <v>5.293662547027973</v>
+        <v>9.27583213711241</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.33082527966802</v>
+        <v>16.90713008882565</v>
       </c>
       <c r="N6">
-        <v>12.05584438974179</v>
+        <v>17.48720652832436</v>
       </c>
       <c r="O6">
-        <v>14.60852539542662</v>
+        <v>22.41878450894438</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.33310453369338</v>
+        <v>11.62437825190647</v>
       </c>
       <c r="C7">
-        <v>11.69187905026485</v>
+        <v>6.935344459690161</v>
       </c>
       <c r="D7">
-        <v>10.01543989690415</v>
+        <v>14.51531799659251</v>
       </c>
       <c r="E7">
-        <v>10.0272089239041</v>
+        <v>15.78529079024775</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>23.22613471863292</v>
+        <v>30.02449640705509</v>
       </c>
       <c r="H7">
-        <v>8.857460950511783</v>
+        <v>14.60389598354868</v>
       </c>
       <c r="I7">
-        <v>12.39962799454427</v>
+        <v>20.33820119692565</v>
       </c>
       <c r="J7">
-        <v>5.281532791834607</v>
+        <v>9.268861622850659</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.56087779851678</v>
+        <v>16.94715957105893</v>
       </c>
       <c r="N7">
-        <v>12.01553992150555</v>
+        <v>17.47244234838175</v>
       </c>
       <c r="O7">
-        <v>14.65776839903434</v>
+        <v>22.400921908838</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.91138333328474</v>
+        <v>12.25364442129866</v>
       </c>
       <c r="C8">
-        <v>12.79190808253474</v>
+        <v>7.484341250579252</v>
       </c>
       <c r="D8">
-        <v>10.41613590704514</v>
+        <v>14.53159207353902</v>
       </c>
       <c r="E8">
-        <v>10.2365720847299</v>
+        <v>15.75928300101691</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>24.25796688776569</v>
+        <v>30.0486432615013</v>
       </c>
       <c r="H8">
-        <v>8.873503968949986</v>
+        <v>14.54952036453097</v>
       </c>
       <c r="I8">
-        <v>12.22501241086438</v>
+        <v>20.21462148128971</v>
       </c>
       <c r="J8">
-        <v>5.23193898274106</v>
+        <v>9.240072401041157</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.54136843627446</v>
+        <v>17.12851883805358</v>
       </c>
       <c r="N8">
-        <v>11.84503429838752</v>
+        <v>17.41110715008495</v>
       </c>
       <c r="O8">
-        <v>14.90325983407025</v>
+        <v>22.33388575988436</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.66171358970636</v>
+        <v>13.40788650208441</v>
       </c>
       <c r="C9">
-        <v>14.7141519582126</v>
+        <v>8.456565776441856</v>
       </c>
       <c r="D9">
-        <v>11.2126594319772</v>
+        <v>14.58723364555084</v>
       </c>
       <c r="E9">
-        <v>10.69036162825801</v>
+        <v>15.73163558889445</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>26.38438260706543</v>
+        <v>30.17813495108189</v>
       </c>
       <c r="H9">
-        <v>8.959763086966317</v>
+        <v>14.46359429262575</v>
       </c>
       <c r="I9">
-        <v>11.98165047600908</v>
+        <v>20.0061773841696</v>
       </c>
       <c r="J9">
-        <v>5.149370806460237</v>
+        <v>9.190672338667431</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.32666027854031</v>
+        <v>17.49898981280507</v>
       </c>
       <c r="N9">
-        <v>11.53760864468809</v>
+        <v>17.30448701803384</v>
       </c>
       <c r="O9">
-        <v>15.48877120726066</v>
+        <v>22.24499690289855</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.47531824091265</v>
+        <v>14.1992264737897</v>
       </c>
       <c r="C10">
-        <v>15.98478030683678</v>
+        <v>9.1038783248021</v>
       </c>
       <c r="D10">
-        <v>11.79912448559447</v>
+        <v>14.64236284620534</v>
       </c>
       <c r="E10">
-        <v>11.04901705353775</v>
+        <v>15.72555612062308</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>27.99581955005885</v>
+        <v>30.32298304345036</v>
       </c>
       <c r="H10">
-        <v>9.059680164525012</v>
+        <v>14.41312518435508</v>
       </c>
       <c r="I10">
-        <v>11.87300752204662</v>
+        <v>19.87378557361394</v>
       </c>
       <c r="J10">
-        <v>5.098230011643254</v>
+        <v>9.158655654736378</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.6935342478957</v>
+        <v>17.77824723647113</v>
       </c>
       <c r="N10">
-        <v>11.32876815476695</v>
+        <v>17.23442663331137</v>
       </c>
       <c r="O10">
-        <v>15.98410070016282</v>
+        <v>22.20580015304385</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.25614919370443</v>
+        <v>14.54555993938972</v>
       </c>
       <c r="C11">
-        <v>16.53251123401389</v>
+        <v>9.383329444870519</v>
       </c>
       <c r="D11">
-        <v>12.06524669859404</v>
+        <v>14.67047967691755</v>
       </c>
       <c r="E11">
-        <v>11.21740957045647</v>
+        <v>15.72587567174014</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>28.73711402362398</v>
+        <v>30.39953571672728</v>
       </c>
       <c r="H11">
-        <v>9.113710383686033</v>
+        <v>14.39292211026277</v>
       </c>
       <c r="I11">
-        <v>11.84106261860331</v>
+        <v>19.81808299965159</v>
       </c>
       <c r="J11">
-        <v>5.077171284651628</v>
+        <v>9.145014301230082</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.31966867066622</v>
+        <v>17.90639743424394</v>
       </c>
       <c r="N11">
-        <v>11.23762504570128</v>
+        <v>17.2043399168569</v>
       </c>
       <c r="O11">
-        <v>16.22379098307584</v>
+        <v>22.19366395392165</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.54553885644247</v>
+        <v>14.67465119521562</v>
       </c>
       <c r="C12">
-        <v>16.73560906740209</v>
+        <v>9.486961939149277</v>
       </c>
       <c r="D12">
-        <v>12.16585838839518</v>
+        <v>14.68155798860531</v>
       </c>
       <c r="E12">
-        <v>11.28190732497178</v>
+        <v>15.72643942291301</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>29.01883872181861</v>
+        <v>30.430041215098</v>
       </c>
       <c r="H12">
-        <v>9.135453791036095</v>
+        <v>14.38566851900439</v>
       </c>
       <c r="I12">
-        <v>11.8316730250709</v>
+        <v>19.79764209657048</v>
       </c>
       <c r="J12">
-        <v>5.069526823271665</v>
+        <v>9.139981061557695</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.55192106567839</v>
+        <v>17.95504872991522</v>
       </c>
       <c r="N12">
-        <v>11.20368360991894</v>
+        <v>17.19320262293185</v>
       </c>
       <c r="O12">
-        <v>16.3166287366671</v>
+        <v>22.1898885455952</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.48349255476613</v>
+        <v>14.64694196813113</v>
       </c>
       <c r="C13">
-        <v>16.69205960734295</v>
+        <v>9.464740622226184</v>
       </c>
       <c r="D13">
-        <v>12.14419807662197</v>
+        <v>14.67915300184962</v>
       </c>
       <c r="E13">
-        <v>11.26798439592375</v>
+        <v>15.72629833469066</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>28.95812164675762</v>
+        <v>30.42340414514748</v>
       </c>
       <c r="H13">
-        <v>9.130713104035491</v>
+        <v>14.3872130492123</v>
       </c>
       <c r="I13">
-        <v>11.83357168932845</v>
+        <v>19.80201536003713</v>
       </c>
       <c r="J13">
-        <v>5.071158300755834</v>
+        <v>9.141059174135592</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.50211613043374</v>
+        <v>17.94456588883592</v>
       </c>
       <c r="N13">
-        <v>11.21096773881273</v>
+        <v>17.19558986783881</v>
       </c>
       <c r="O13">
-        <v>16.29654222284231</v>
+        <v>22.19066514600735</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.28008324269754</v>
+        <v>14.55622208958036</v>
       </c>
       <c r="C14">
-        <v>16.54930647663349</v>
+        <v>9.391899385195646</v>
       </c>
       <c r="D14">
-        <v>12.07352770019855</v>
+        <v>14.67138249202459</v>
       </c>
       <c r="E14">
-        <v>11.22270130704844</v>
+        <v>15.72591318462767</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>28.76027226803735</v>
+        <v>30.40201512945673</v>
       </c>
       <c r="H14">
-        <v>9.115473226489373</v>
+        <v>14.39231739560945</v>
       </c>
       <c r="I14">
-        <v>11.84023474301546</v>
+        <v>19.81638822636267</v>
       </c>
       <c r="J14">
-        <v>5.07653567859995</v>
+        <v>9.144597560937292</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.3388730865514</v>
+        <v>17.91039773830259</v>
       </c>
       <c r="N14">
-        <v>11.23482108086682</v>
+        <v>17.20341852021802</v>
       </c>
       <c r="O14">
-        <v>16.23138724116682</v>
+        <v>22.1933369020528</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.1546713281497</v>
+        <v>14.50038298653215</v>
       </c>
       <c r="C15">
-        <v>16.46130521685924</v>
+        <v>9.346996089572066</v>
       </c>
       <c r="D15">
-        <v>12.03021699543748</v>
+        <v>14.66667878785757</v>
       </c>
       <c r="E15">
-        <v>11.19505869626277</v>
+        <v>15.72573489673542</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>28.63921108643471</v>
+        <v>30.38911072291921</v>
       </c>
       <c r="H15">
-        <v>9.10630694479358</v>
+        <v>14.39549565752515</v>
       </c>
       <c r="I15">
-        <v>11.84467447204554</v>
+        <v>19.82527705152048</v>
       </c>
       <c r="J15">
-        <v>5.07987285636557</v>
+        <v>9.146782164144609</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.23825206979493</v>
+        <v>17.88948376842053</v>
       </c>
       <c r="N15">
-        <v>11.24950705735774</v>
+        <v>17.20824710139993</v>
       </c>
       <c r="O15">
-        <v>16.1917479534815</v>
+        <v>22.19508029267152</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.42340499626339</v>
+        <v>14.17630966898561</v>
       </c>
       <c r="C16">
-        <v>15.94837863369797</v>
+        <v>9.085310635649837</v>
       </c>
       <c r="D16">
-        <v>11.78171340627273</v>
+        <v>14.6405859972494</v>
       </c>
       <c r="E16">
-        <v>11.03811569449134</v>
+        <v>15.72559724709353</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>27.94752460741286</v>
+        <v>30.31819333243736</v>
       </c>
       <c r="H16">
-        <v>9.056326064504987</v>
+        <v>14.41450100680676</v>
       </c>
       <c r="I16">
-        <v>11.87546334227077</v>
+        <v>19.87751705765598</v>
       </c>
       <c r="J16">
-        <v>5.099651705991689</v>
+        <v>9.159565699756257</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.65193273152931</v>
+        <v>17.76989161111002</v>
       </c>
       <c r="N16">
-        <v>11.33480367336245</v>
+        <v>17.23642871489361</v>
       </c>
       <c r="O16">
-        <v>15.96872605708932</v>
+        <v>22.20670800467453</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.96352104978273</v>
+        <v>13.97393310147571</v>
       </c>
       <c r="C17">
-        <v>15.62598459856339</v>
+        <v>8.920905490758537</v>
       </c>
       <c r="D17">
-        <v>11.62904318600287</v>
+        <v>14.62535311412691</v>
       </c>
       <c r="E17">
-        <v>10.94316178494491</v>
+        <v>15.72630242106145</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>27.5251759746167</v>
+        <v>30.27740750708977</v>
       </c>
       <c r="H17">
-        <v>9.027897307510525</v>
+        <v>14.42686640557629</v>
       </c>
       <c r="I17">
-        <v>11.89896390135756</v>
+        <v>19.91072452570465</v>
       </c>
       <c r="J17">
-        <v>5.112359103437799</v>
+        <v>9.167644215637091</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.28353960871222</v>
+        <v>17.69678505801502</v>
       </c>
       <c r="N17">
-        <v>11.38813057066071</v>
+        <v>17.25417369820466</v>
       </c>
       <c r="O17">
-        <v>15.83559400861637</v>
+        <v>22.21530091344039</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.69484508674708</v>
+        <v>13.85625130005825</v>
       </c>
       <c r="C18">
-        <v>15.43769898297943</v>
+        <v>8.824932077785405</v>
       </c>
       <c r="D18">
-        <v>11.54117225064762</v>
+        <v>14.61687792187588</v>
       </c>
       <c r="E18">
-        <v>10.88904114054475</v>
+        <v>15.72699847459336</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>27.28303662709956</v>
+        <v>30.25495315472119</v>
       </c>
       <c r="H18">
-        <v>9.01235030466345</v>
+        <v>14.43423798984692</v>
       </c>
       <c r="I18">
-        <v>11.91411384942164</v>
+        <v>19.9302501971129</v>
       </c>
       <c r="J18">
-        <v>5.119874821012842</v>
+        <v>9.172377678127303</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.06843148230039</v>
+        <v>17.65484320955169</v>
       </c>
       <c r="N18">
-        <v>11.41916487462183</v>
+        <v>17.26454810967969</v>
       </c>
       <c r="O18">
-        <v>15.76037171426691</v>
+        <v>22.22077927253232</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.60315927200234</v>
+        <v>13.81618950500591</v>
       </c>
       <c r="C19">
-        <v>15.37345757050099</v>
+        <v>8.792195676759848</v>
       </c>
       <c r="D19">
-        <v>11.5114127449846</v>
+        <v>14.61405771878773</v>
       </c>
       <c r="E19">
-        <v>10.87080241761738</v>
+        <v>15.72728405572307</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>27.20119290471418</v>
+        <v>30.24752348536976</v>
       </c>
       <c r="H19">
-        <v>9.007222978189885</v>
+        <v>14.43677840249046</v>
       </c>
       <c r="I19">
-        <v>11.91951802078079</v>
+        <v>19.93693429222602</v>
       </c>
       <c r="J19">
-        <v>5.122454649260473</v>
+        <v>9.173995284249637</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.99504507621453</v>
+        <v>17.64066193466221</v>
       </c>
       <c r="N19">
-        <v>11.42973425149315</v>
+        <v>17.26808957597566</v>
       </c>
       <c r="O19">
-        <v>15.73513463029005</v>
+        <v>22.22272614896361</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.01290689957817</v>
+        <v>13.99560965215879</v>
       </c>
       <c r="C20">
-        <v>15.66059900972029</v>
+        <v>8.93855307085261</v>
       </c>
       <c r="D20">
-        <v>11.64530182664897</v>
+        <v>14.62694508397485</v>
       </c>
       <c r="E20">
-        <v>10.95321879381381</v>
+        <v>15.72619729867351</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>27.5700558755973</v>
+        <v>30.2816453673872</v>
       </c>
       <c r="H20">
-        <v>9.030839971576881</v>
+        <v>14.42552324295074</v>
       </c>
       <c r="I20">
-        <v>11.89629182485394</v>
+        <v>19.90714546994658</v>
       </c>
       <c r="J20">
-        <v>5.110984890571102</v>
+        <v>9.166775250833469</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.32308832826736</v>
+        <v>17.70455655612036</v>
       </c>
       <c r="N20">
-        <v>11.38241623828599</v>
+        <v>17.25226733537805</v>
       </c>
       <c r="O20">
-        <v>15.84962618169599</v>
+        <v>22.21433070349741</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.33999981322135</v>
+        <v>14.58292525162825</v>
       </c>
       <c r="C21">
-        <v>16.59135333608305</v>
+        <v>9.413354255674642</v>
       </c>
       <c r="D21">
-        <v>12.09429021423437</v>
+        <v>14.67365322874531</v>
       </c>
       <c r="E21">
-        <v>11.23598237286416</v>
+        <v>15.72601430492816</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>28.81835916598895</v>
+        <v>30.40825658367068</v>
       </c>
       <c r="H21">
-        <v>9.119914328407383</v>
+        <v>14.39080734957962</v>
       </c>
       <c r="I21">
-        <v>11.83820259531439</v>
+        <v>19.81214884336809</v>
       </c>
       <c r="J21">
-        <v>5.074947147861898</v>
+        <v>9.143554658890221</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.386952693635</v>
+        <v>17.92043068981109</v>
       </c>
       <c r="N21">
-        <v>11.22779908728222</v>
+        <v>17.20111211554605</v>
       </c>
       <c r="O21">
-        <v>16.25046855837802</v>
+        <v>22.19252987049158</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.17067527446889</v>
+        <v>14.95474117733383</v>
       </c>
       <c r="C22">
-        <v>17.17451912924305</v>
+        <v>9.710892201739044</v>
       </c>
       <c r="D22">
-        <v>12.38675595099459</v>
+        <v>14.70668929313313</v>
       </c>
       <c r="E22">
-        <v>11.42503754737738</v>
+        <v>15.72847477143302</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>29.64004236768015</v>
+        <v>30.49983511553274</v>
       </c>
       <c r="H22">
-        <v>9.18563193550918</v>
+        <v>14.37043204364254</v>
       </c>
       <c r="I22">
-        <v>11.81611147234623</v>
+        <v>19.75386701751297</v>
       </c>
       <c r="J22">
-        <v>5.053324758035067</v>
+        <v>9.129150509476254</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.05400329940692</v>
+        <v>18.06222042328829</v>
       </c>
       <c r="N22">
-        <v>11.1300946585259</v>
+        <v>17.16917046872756</v>
       </c>
       <c r="O22">
-        <v>16.52452235520391</v>
+        <v>22.18306348340292</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.73066153929555</v>
+        <v>14.75742457445408</v>
       </c>
       <c r="C23">
-        <v>16.86555862612477</v>
+        <v>9.5532675933171</v>
       </c>
       <c r="D23">
-        <v>12.23077024470599</v>
+        <v>14.68882975211435</v>
       </c>
       <c r="E23">
-        <v>11.32375296434662</v>
+        <v>15.72692585686603</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>29.20100855658472</v>
+        <v>30.45015600657556</v>
       </c>
       <c r="H23">
-        <v>9.14985464453544</v>
+        <v>14.38109484726567</v>
       </c>
       <c r="I23">
-        <v>11.82638402972047</v>
+        <v>19.78462438174012</v>
       </c>
       <c r="J23">
-        <v>5.064683875299121</v>
+        <v>9.136767751826069</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.70054989238862</v>
+        <v>17.98649228774777</v>
       </c>
       <c r="N23">
-        <v>11.18192867391642</v>
+        <v>17.18608209020867</v>
       </c>
       <c r="O23">
-        <v>16.37714775287418</v>
+        <v>22.18767798997643</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.9905929005907</v>
+        <v>13.98581382768327</v>
       </c>
       <c r="C24">
-        <v>15.64495898539952</v>
+        <v>8.930579128612976</v>
       </c>
       <c r="D24">
-        <v>11.63795159767549</v>
+        <v>14.62622447434662</v>
       </c>
       <c r="E24">
-        <v>10.94867055562917</v>
+        <v>15.7262439191285</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>27.54976355790541</v>
+        <v>30.27972633340427</v>
       </c>
       <c r="H24">
-        <v>9.029507114260509</v>
+        <v>14.42612966897375</v>
       </c>
       <c r="I24">
-        <v>11.89749477964932</v>
+        <v>19.90876220850854</v>
       </c>
       <c r="J24">
-        <v>5.111605518862369</v>
+        <v>9.167167832516601</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.30521867904747</v>
+        <v>17.70104278465137</v>
       </c>
       <c r="N24">
-        <v>11.38499851821194</v>
+        <v>17.25312866436225</v>
       </c>
       <c r="O24">
-        <v>15.84327813433776</v>
+        <v>22.21476765910668</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.95427545982287</v>
+        <v>13.10507293717164</v>
       </c>
       <c r="C25">
-        <v>14.21914283083554</v>
+        <v>8.205119687651033</v>
       </c>
       <c r="D25">
-        <v>10.99660411778446</v>
+        <v>14.56966102535404</v>
       </c>
       <c r="E25">
-        <v>10.56307842537068</v>
+        <v>15.73661428093481</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>25.79957689307828</v>
+        <v>30.13433675788395</v>
       </c>
       <c r="H25">
-        <v>8.930231733338024</v>
+        <v>14.48461883037671</v>
       </c>
       <c r="I25">
-        <v>12.03590204126817</v>
+        <v>20.05892930041602</v>
       </c>
       <c r="J25">
-        <v>5.170079574107582</v>
+        <v>9.203283490836533</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.85937133012032</v>
+        <v>17.39738132809608</v>
       </c>
       <c r="N25">
-        <v>11.61783567902432</v>
+        <v>17.33187394586058</v>
       </c>
       <c r="O25">
-        <v>15.31902218203596</v>
+        <v>22.2644684393515</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_187/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_187/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.41908946361288</v>
+        <v>18.31558862735359</v>
       </c>
       <c r="C2">
-        <v>7.626184542585443</v>
+        <v>13.07401896322407</v>
       </c>
       <c r="D2">
-        <v>14.53761406220659</v>
+        <v>10.52564660403826</v>
       </c>
       <c r="E2">
-        <v>15.753816265174</v>
+        <v>10.29626068345767</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>30.06075141182773</v>
+        <v>24.5450523811647</v>
       </c>
       <c r="H2">
-        <v>14.53618689881979</v>
+        <v>8.881439567535841</v>
       </c>
       <c r="I2">
-        <v>20.18342821128782</v>
+        <v>12.18405889969951</v>
       </c>
       <c r="J2">
-        <v>9.23275033487905</v>
+        <v>5.219475839641693</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.17873311764749</v>
+        <v>14.79810894134343</v>
       </c>
       <c r="N2">
-        <v>17.39541469407961</v>
+        <v>11.80063979998966</v>
       </c>
       <c r="O2">
-        <v>22.31859631746758</v>
+        <v>14.97673721592536</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.93344286615437</v>
+        <v>17.11707275947535</v>
       </c>
       <c r="C3">
-        <v>7.206989061481051</v>
+        <v>12.23797323081959</v>
       </c>
       <c r="D3">
-        <v>14.5219544028458</v>
+        <v>10.20900713638915</v>
       </c>
       <c r="E3">
-        <v>15.77144270344167</v>
+        <v>10.12645829982491</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>30.03187385834743</v>
+        <v>23.72063850570291</v>
       </c>
       <c r="H3">
-        <v>14.57642666397888</v>
+        <v>8.86249603108587</v>
       </c>
       <c r="I3">
-        <v>20.27646498285445</v>
+        <v>12.31009202558501</v>
       </c>
       <c r="J3">
-        <v>9.254521919266084</v>
+        <v>5.256721248549912</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.03427758976533</v>
+        <v>14.04332017812255</v>
       </c>
       <c r="N3">
-        <v>17.44196402964048</v>
+        <v>11.93142273158287</v>
       </c>
       <c r="O3">
-        <v>22.36616407340034</v>
+        <v>14.77148144245445</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.62608769536219</v>
+        <v>16.33749292257788</v>
       </c>
       <c r="C4">
-        <v>6.936858536567611</v>
+        <v>11.69493404290137</v>
       </c>
       <c r="D4">
-        <v>14.51534714894636</v>
+        <v>10.01649255220264</v>
       </c>
       <c r="E4">
-        <v>15.78520815651824</v>
+        <v>10.02773821518764</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>30.02451225307438</v>
+        <v>23.22880162535962</v>
       </c>
       <c r="H4">
-        <v>14.60373969868792</v>
+        <v>8.857473309871631</v>
       </c>
       <c r="I4">
-        <v>20.33785371014577</v>
+        <v>12.39911230444946</v>
       </c>
       <c r="J4">
-        <v>9.268781138643474</v>
+        <v>5.281392986519257</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.94763064336586</v>
+        <v>13.56355146126552</v>
       </c>
       <c r="N4">
-        <v>17.47227168037263</v>
+        <v>12.01507231162202</v>
       </c>
       <c r="O4">
-        <v>22.40071933365079</v>
+        <v>14.65835985758289</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.49871613129772</v>
+        <v>16.00878554738789</v>
       </c>
       <c r="C5">
-        <v>6.823667463309212</v>
+        <v>11.46616412128795</v>
       </c>
       <c r="D5">
-        <v>14.51341362888146</v>
+        <v>9.938624847784324</v>
       </c>
       <c r="E5">
-        <v>15.79155742015599</v>
+        <v>9.988914954416362</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>30.02412007244627</v>
+        <v>23.03223765925516</v>
       </c>
       <c r="H5">
-        <v>14.61552450835436</v>
+        <v>8.857034184933561</v>
       </c>
       <c r="I5">
-        <v>20.3639408476037</v>
+        <v>12.43817241362254</v>
       </c>
       <c r="J5">
-        <v>9.274816412403696</v>
+        <v>5.291892433336925</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.91286838421974</v>
+        <v>13.36416096005811</v>
       </c>
       <c r="N5">
-        <v>17.48505720807279</v>
+        <v>12.04999521676998</v>
       </c>
       <c r="O5">
-        <v>22.41614256108532</v>
+        <v>14.61545786363264</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.47744378693007</v>
+        <v>15.95353725455869</v>
       </c>
       <c r="C6">
-        <v>6.804687404565072</v>
+        <v>11.42772539713745</v>
       </c>
       <c r="D6">
-        <v>14.51313847740805</v>
+        <v>9.92573335727127</v>
       </c>
       <c r="E6">
-        <v>15.79265637717078</v>
+        <v>9.982553605021632</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>30.02421240674892</v>
+        <v>22.99983905285887</v>
       </c>
       <c r="H6">
-        <v>14.61752087794449</v>
+        <v>8.857056766043064</v>
       </c>
       <c r="I6">
-        <v>20.3683372254074</v>
+        <v>12.44482242027998</v>
       </c>
       <c r="J6">
-        <v>9.27583213711241</v>
+        <v>5.293662547027941</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.90713008882565</v>
+        <v>13.33082527966802</v>
       </c>
       <c r="N6">
-        <v>17.48720652832436</v>
+        <v>12.0558443897418</v>
       </c>
       <c r="O6">
-        <v>22.41878450894438</v>
+        <v>14.60852539542666</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.62437825190647</v>
+        <v>16.33310453369346</v>
       </c>
       <c r="C7">
-        <v>6.935344459690161</v>
+        <v>11.69187905026481</v>
       </c>
       <c r="D7">
-        <v>14.51531799659251</v>
+        <v>10.01543989690411</v>
       </c>
       <c r="E7">
-        <v>15.78529079024775</v>
+        <v>10.0272089239041</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>30.02449640705509</v>
+        <v>23.22613471863285</v>
       </c>
       <c r="H7">
-        <v>14.60389598354868</v>
+        <v>8.857460950511729</v>
       </c>
       <c r="I7">
-        <v>20.33820119692565</v>
+        <v>12.39962799454421</v>
       </c>
       <c r="J7">
-        <v>9.268861622850659</v>
+        <v>5.28153279183467</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.94715957105893</v>
+        <v>13.56087779851676</v>
       </c>
       <c r="N7">
-        <v>17.47244234838175</v>
+        <v>12.01553992150555</v>
       </c>
       <c r="O7">
-        <v>22.400921908838</v>
+        <v>14.65776839903428</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.25364442129866</v>
+        <v>17.91138333328475</v>
       </c>
       <c r="C8">
-        <v>7.484341250579252</v>
+        <v>12.79190808253477</v>
       </c>
       <c r="D8">
-        <v>14.53159207353902</v>
+        <v>10.41613590704509</v>
       </c>
       <c r="E8">
-        <v>15.75928300101691</v>
+        <v>10.23657208472982</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>30.0486432615013</v>
+        <v>24.2579668877656</v>
       </c>
       <c r="H8">
-        <v>14.54952036453097</v>
+        <v>8.873503968949942</v>
       </c>
       <c r="I8">
-        <v>20.21462148128971</v>
+        <v>12.22501241086431</v>
       </c>
       <c r="J8">
-        <v>9.240072401041157</v>
+        <v>5.231938982741029</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.12851883805358</v>
+        <v>14.54136843627442</v>
       </c>
       <c r="N8">
-        <v>17.41110715008495</v>
+        <v>11.84503429838749</v>
       </c>
       <c r="O8">
-        <v>22.33388575988436</v>
+        <v>14.90325983407016</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.40788650208441</v>
+        <v>20.66171358970632</v>
       </c>
       <c r="C9">
-        <v>8.456565776441856</v>
+        <v>14.71415195821269</v>
       </c>
       <c r="D9">
-        <v>14.58723364555084</v>
+        <v>11.2126594319772</v>
       </c>
       <c r="E9">
-        <v>15.73163558889445</v>
+        <v>10.69036162825801</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>30.17813495108189</v>
+        <v>26.38438260706537</v>
       </c>
       <c r="H9">
-        <v>14.46359429262575</v>
+        <v>8.95976308696634</v>
       </c>
       <c r="I9">
-        <v>20.0061773841696</v>
+        <v>11.98165047600908</v>
       </c>
       <c r="J9">
-        <v>9.190672338667431</v>
+        <v>5.149370806460263</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.49898981280507</v>
+        <v>16.32666027854032</v>
       </c>
       <c r="N9">
-        <v>17.30448701803384</v>
+        <v>11.53760864468806</v>
       </c>
       <c r="O9">
-        <v>22.24499690289855</v>
+        <v>15.48877120726066</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.1992264737897</v>
+        <v>22.47531824091272</v>
       </c>
       <c r="C10">
-        <v>9.1038783248021</v>
+        <v>15.98478030683679</v>
       </c>
       <c r="D10">
-        <v>14.64236284620534</v>
+        <v>11.79912448559443</v>
       </c>
       <c r="E10">
-        <v>15.72555612062308</v>
+        <v>11.04901705353769</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>30.32298304345036</v>
+        <v>27.99581955005879</v>
       </c>
       <c r="H10">
-        <v>14.41312518435508</v>
+        <v>9.059680164524931</v>
       </c>
       <c r="I10">
-        <v>19.87378557361394</v>
+        <v>11.87300752204654</v>
       </c>
       <c r="J10">
-        <v>9.158655654736378</v>
+        <v>5.098230011643228</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.77824723647113</v>
+        <v>17.69353424789575</v>
       </c>
       <c r="N10">
-        <v>17.23442663331137</v>
+        <v>11.32876815476689</v>
       </c>
       <c r="O10">
-        <v>22.20580015304385</v>
+        <v>15.98410070016273</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.54555993938972</v>
+        <v>23.25614919370442</v>
       </c>
       <c r="C11">
-        <v>9.383329444870519</v>
+        <v>16.532511234014</v>
       </c>
       <c r="D11">
-        <v>14.67047967691755</v>
+        <v>12.06524669859404</v>
       </c>
       <c r="E11">
-        <v>15.72587567174014</v>
+        <v>11.21740957045646</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>30.39953571672728</v>
+        <v>28.73711402362397</v>
       </c>
       <c r="H11">
-        <v>14.39292211026277</v>
+        <v>9.113710383686046</v>
       </c>
       <c r="I11">
-        <v>19.81808299965159</v>
+        <v>11.84106261860334</v>
       </c>
       <c r="J11">
-        <v>9.145014301230082</v>
+        <v>5.07717128465154</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.90639743424394</v>
+        <v>18.31966867066627</v>
       </c>
       <c r="N11">
-        <v>17.2043399168569</v>
+        <v>11.23762504570124</v>
       </c>
       <c r="O11">
-        <v>22.19366395392165</v>
+        <v>16.22379098307583</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.67465119521562</v>
+        <v>23.54553885644252</v>
       </c>
       <c r="C12">
-        <v>9.486961939149277</v>
+        <v>16.73560906740206</v>
       </c>
       <c r="D12">
-        <v>14.68155798860531</v>
+        <v>12.16585838839522</v>
       </c>
       <c r="E12">
-        <v>15.72643942291301</v>
+        <v>11.28190732497174</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>30.430041215098</v>
+        <v>29.01883872181863</v>
       </c>
       <c r="H12">
-        <v>14.38566851900439</v>
+        <v>9.135453791036101</v>
       </c>
       <c r="I12">
-        <v>19.79764209657048</v>
+        <v>11.83167302507092</v>
       </c>
       <c r="J12">
-        <v>9.139981061557695</v>
+        <v>5.069526823271606</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.95504872991522</v>
+        <v>18.5519210656784</v>
       </c>
       <c r="N12">
-        <v>17.19320262293185</v>
+        <v>11.203683609919</v>
       </c>
       <c r="O12">
-        <v>22.1898885455952</v>
+        <v>16.31662873666712</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.64694196813113</v>
+        <v>23.48349255476609</v>
       </c>
       <c r="C13">
-        <v>9.464740622226184</v>
+        <v>16.69205960734291</v>
       </c>
       <c r="D13">
-        <v>14.67915300184962</v>
+        <v>12.14419807662202</v>
       </c>
       <c r="E13">
-        <v>15.72629833469066</v>
+        <v>11.26798439592378</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>30.42340414514748</v>
+        <v>28.95812164675758</v>
       </c>
       <c r="H13">
-        <v>14.3872130492123</v>
+        <v>9.130713104035491</v>
       </c>
       <c r="I13">
-        <v>19.80201536003713</v>
+        <v>11.83357168932841</v>
       </c>
       <c r="J13">
-        <v>9.141059174135592</v>
+        <v>5.071158300755838</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.94456588883592</v>
+        <v>18.50211613043371</v>
       </c>
       <c r="N13">
-        <v>17.19558986783881</v>
+        <v>11.21096773881263</v>
       </c>
       <c r="O13">
-        <v>22.19066514600735</v>
+        <v>16.29654222284226</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.55622208958036</v>
+        <v>23.28008324269765</v>
       </c>
       <c r="C14">
-        <v>9.391899385195646</v>
+        <v>16.5493064766334</v>
       </c>
       <c r="D14">
-        <v>14.67138249202459</v>
+        <v>12.07352770019848</v>
       </c>
       <c r="E14">
-        <v>15.72591318462767</v>
+        <v>11.22270130704841</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>30.40201512945673</v>
+        <v>28.76027226803731</v>
       </c>
       <c r="H14">
-        <v>14.39231739560945</v>
+        <v>9.115473226489307</v>
       </c>
       <c r="I14">
-        <v>19.81638822636267</v>
+        <v>11.84023474301528</v>
       </c>
       <c r="J14">
-        <v>9.144597560937292</v>
+        <v>5.076535678599954</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.91039773830259</v>
+        <v>18.33887308655144</v>
       </c>
       <c r="N14">
-        <v>17.20341852021802</v>
+        <v>11.23482108086668</v>
       </c>
       <c r="O14">
-        <v>22.1933369020528</v>
+        <v>16.23138724116673</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.50038298653215</v>
+        <v>23.15467132814974</v>
       </c>
       <c r="C15">
-        <v>9.346996089572066</v>
+        <v>16.46130521685923</v>
       </c>
       <c r="D15">
-        <v>14.66667878785757</v>
+        <v>12.03021699543758</v>
       </c>
       <c r="E15">
-        <v>15.72573489673542</v>
+        <v>11.19505869626283</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>30.38911072291921</v>
+        <v>28.63921108643482</v>
       </c>
       <c r="H15">
-        <v>14.39549565752515</v>
+        <v>9.106306944793598</v>
       </c>
       <c r="I15">
-        <v>19.82527705152048</v>
+        <v>11.84467447204564</v>
       </c>
       <c r="J15">
-        <v>9.146782164144609</v>
+        <v>5.079872856365574</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.88948376842053</v>
+        <v>18.23825206979492</v>
       </c>
       <c r="N15">
-        <v>17.20824710139993</v>
+        <v>11.24950705735779</v>
       </c>
       <c r="O15">
-        <v>22.19508029267152</v>
+        <v>16.19174795348154</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.17630966898561</v>
+        <v>22.42340499626339</v>
       </c>
       <c r="C16">
-        <v>9.085310635649837</v>
+        <v>15.94837863369789</v>
       </c>
       <c r="D16">
-        <v>14.6405859972494</v>
+        <v>11.7817134062727</v>
       </c>
       <c r="E16">
-        <v>15.72559724709353</v>
+        <v>11.03811569449132</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>30.31819333243736</v>
+        <v>27.94752460741292</v>
       </c>
       <c r="H16">
-        <v>14.41450100680676</v>
+        <v>9.056326064505074</v>
       </c>
       <c r="I16">
-        <v>19.87751705765598</v>
+        <v>11.8754633422709</v>
       </c>
       <c r="J16">
-        <v>9.159565699756257</v>
+        <v>5.099651705991771</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.76989161111002</v>
+        <v>17.65193273152927</v>
       </c>
       <c r="N16">
-        <v>17.23642871489361</v>
+        <v>11.33480367336252</v>
       </c>
       <c r="O16">
-        <v>22.20670800467453</v>
+        <v>15.96872605708941</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.97393310147571</v>
+        <v>21.96352104978275</v>
       </c>
       <c r="C17">
-        <v>8.920905490758537</v>
+        <v>15.62598459856334</v>
       </c>
       <c r="D17">
-        <v>14.62535311412691</v>
+        <v>11.62904318600282</v>
       </c>
       <c r="E17">
-        <v>15.72630242106145</v>
+        <v>10.94316178494484</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>30.27740750708977</v>
+        <v>27.52517597461674</v>
       </c>
       <c r="H17">
-        <v>14.42686640557629</v>
+        <v>9.027897307510502</v>
       </c>
       <c r="I17">
-        <v>19.91072452570465</v>
+        <v>11.89896390135751</v>
       </c>
       <c r="J17">
-        <v>9.167644215637091</v>
+        <v>5.112359103437796</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.69678505801502</v>
+        <v>17.28353960871224</v>
       </c>
       <c r="N17">
-        <v>17.25417369820466</v>
+        <v>11.38813057066061</v>
       </c>
       <c r="O17">
-        <v>22.21530091344039</v>
+        <v>15.83559400861636</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.85625130005825</v>
+        <v>21.69484508674708</v>
       </c>
       <c r="C18">
-        <v>8.824932077785405</v>
+        <v>15.43769898297938</v>
       </c>
       <c r="D18">
-        <v>14.61687792187588</v>
+        <v>11.54117225064761</v>
       </c>
       <c r="E18">
-        <v>15.72699847459336</v>
+        <v>10.88904114054471</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>30.25495315472119</v>
+        <v>27.28303662709965</v>
       </c>
       <c r="H18">
-        <v>14.43423798984692</v>
+        <v>9.012350304663441</v>
       </c>
       <c r="I18">
-        <v>19.9302501971129</v>
+        <v>11.91411384942173</v>
       </c>
       <c r="J18">
-        <v>9.172377678127303</v>
+        <v>5.119874821012843</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.65484320955169</v>
+        <v>17.0684314823004</v>
       </c>
       <c r="N18">
-        <v>17.26454810967969</v>
+        <v>11.41916487462186</v>
       </c>
       <c r="O18">
-        <v>22.22077927253232</v>
+        <v>15.76037171426697</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.81618950500591</v>
+        <v>21.60315927200239</v>
       </c>
       <c r="C19">
-        <v>8.792195676759848</v>
+        <v>15.373457570501</v>
       </c>
       <c r="D19">
-        <v>14.61405771878773</v>
+        <v>11.51141274498471</v>
       </c>
       <c r="E19">
-        <v>15.72728405572307</v>
+        <v>10.87080241761745</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>30.24752348536976</v>
+        <v>27.20119290471409</v>
       </c>
       <c r="H19">
-        <v>14.43677840249046</v>
+        <v>9.007222978189759</v>
       </c>
       <c r="I19">
-        <v>19.93693429222602</v>
+        <v>11.91951802078065</v>
       </c>
       <c r="J19">
-        <v>9.173995284249637</v>
+        <v>5.1224546492605</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.64066193466221</v>
+        <v>16.99504507621455</v>
       </c>
       <c r="N19">
-        <v>17.26808957597566</v>
+        <v>11.42973425149308</v>
       </c>
       <c r="O19">
-        <v>22.22272614896361</v>
+        <v>15.73513463028992</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.99560965215879</v>
+        <v>22.0129068995781</v>
       </c>
       <c r="C20">
-        <v>8.93855307085261</v>
+        <v>15.66059900972026</v>
       </c>
       <c r="D20">
-        <v>14.62694508397485</v>
+        <v>11.64530182664897</v>
       </c>
       <c r="E20">
-        <v>15.72619729867351</v>
+        <v>10.95321879381381</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>30.2816453673872</v>
+        <v>27.57005587559737</v>
       </c>
       <c r="H20">
-        <v>14.42552324295074</v>
+        <v>9.030839971576921</v>
       </c>
       <c r="I20">
-        <v>19.90714546994658</v>
+        <v>11.89629182485402</v>
       </c>
       <c r="J20">
-        <v>9.166775250833469</v>
+        <v>5.110984890571104</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.70455655612036</v>
+        <v>17.32308832826733</v>
       </c>
       <c r="N20">
-        <v>17.25226733537805</v>
+        <v>11.38241623828598</v>
       </c>
       <c r="O20">
-        <v>22.21433070349741</v>
+        <v>15.84962618169604</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.58292525162825</v>
+        <v>23.33999981322136</v>
       </c>
       <c r="C21">
-        <v>9.413354255674642</v>
+        <v>16.59135333608291</v>
       </c>
       <c r="D21">
-        <v>14.67365322874531</v>
+        <v>12.09429021423435</v>
       </c>
       <c r="E21">
-        <v>15.72601430492816</v>
+        <v>11.23598237286407</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>30.40825658367068</v>
+        <v>28.81835916598903</v>
       </c>
       <c r="H21">
-        <v>14.39080734957962</v>
+        <v>9.1199143284074</v>
       </c>
       <c r="I21">
-        <v>19.81214884336809</v>
+        <v>11.8382025953144</v>
       </c>
       <c r="J21">
-        <v>9.143554658890221</v>
+        <v>5.074947147861805</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.92043068981109</v>
+        <v>18.38695269363502</v>
       </c>
       <c r="N21">
-        <v>17.20111211554605</v>
+        <v>11.22779908728214</v>
       </c>
       <c r="O21">
-        <v>22.19252987049158</v>
+        <v>16.25046855837807</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.95474117733383</v>
+        <v>24.17067527446885</v>
       </c>
       <c r="C22">
-        <v>9.710892201739044</v>
+        <v>17.17451912924301</v>
       </c>
       <c r="D22">
-        <v>14.70668929313313</v>
+        <v>12.38675595099453</v>
       </c>
       <c r="E22">
-        <v>15.72847477143302</v>
+        <v>11.42503754737732</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>30.49983511553274</v>
+        <v>29.6400423676802</v>
       </c>
       <c r="H22">
-        <v>14.37043204364254</v>
+        <v>9.185631935509218</v>
       </c>
       <c r="I22">
-        <v>19.75386701751297</v>
+        <v>11.81611147234633</v>
       </c>
       <c r="J22">
-        <v>9.129150509476254</v>
+        <v>5.053324758035045</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.06222042328829</v>
+        <v>19.05400329940693</v>
       </c>
       <c r="N22">
-        <v>17.16917046872756</v>
+        <v>11.13009465852593</v>
       </c>
       <c r="O22">
-        <v>22.18306348340292</v>
+        <v>16.52452235520396</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.75742457445408</v>
+        <v>23.73066153929556</v>
       </c>
       <c r="C23">
-        <v>9.5532675933171</v>
+        <v>16.86555862612472</v>
       </c>
       <c r="D23">
-        <v>14.68882975211435</v>
+        <v>12.23077024470594</v>
       </c>
       <c r="E23">
-        <v>15.72692585686603</v>
+        <v>11.32375296434659</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>30.45015600657556</v>
+        <v>29.20100855658475</v>
       </c>
       <c r="H23">
-        <v>14.38109484726567</v>
+        <v>9.14985464453544</v>
       </c>
       <c r="I23">
-        <v>19.78462438174012</v>
+        <v>11.82638402972045</v>
       </c>
       <c r="J23">
-        <v>9.136767751826069</v>
+        <v>5.064683875299123</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.98649228774777</v>
+        <v>18.70054989238862</v>
       </c>
       <c r="N23">
-        <v>17.18608209020867</v>
+        <v>11.18192867391642</v>
       </c>
       <c r="O23">
-        <v>22.18767798997643</v>
+        <v>16.37714775287419</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.98581382768327</v>
+        <v>21.99059290059069</v>
       </c>
       <c r="C24">
-        <v>8.930579128612976</v>
+        <v>15.64495898539951</v>
       </c>
       <c r="D24">
-        <v>14.62622447434662</v>
+        <v>11.63795159767557</v>
       </c>
       <c r="E24">
-        <v>15.7262439191285</v>
+        <v>10.94867055562914</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>30.27972633340427</v>
+        <v>27.5497635579054</v>
       </c>
       <c r="H24">
-        <v>14.42612966897375</v>
+        <v>9.029507114260536</v>
       </c>
       <c r="I24">
-        <v>19.90876220850854</v>
+        <v>11.89749477964933</v>
       </c>
       <c r="J24">
-        <v>9.167167832516601</v>
+        <v>5.111605518862372</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.70104278465137</v>
+        <v>17.3052186790475</v>
       </c>
       <c r="N24">
-        <v>17.25312866436225</v>
+        <v>11.38499851821187</v>
       </c>
       <c r="O24">
-        <v>22.21476765910668</v>
+        <v>15.84327813433774</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.10507293717164</v>
+        <v>19.9542754598229</v>
       </c>
       <c r="C25">
-        <v>8.205119687651033</v>
+        <v>14.21914283083559</v>
       </c>
       <c r="D25">
-        <v>14.56966102535404</v>
+        <v>10.99660411778449</v>
       </c>
       <c r="E25">
-        <v>15.73661428093481</v>
+        <v>10.56307842537073</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>30.13433675788395</v>
+        <v>25.79957689307821</v>
       </c>
       <c r="H25">
-        <v>14.48461883037671</v>
+        <v>8.930231733337973</v>
       </c>
       <c r="I25">
-        <v>20.05892930041602</v>
+        <v>12.03590204126811</v>
       </c>
       <c r="J25">
-        <v>9.203283490836533</v>
+        <v>5.170079574107555</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.39738132809608</v>
+        <v>15.85937133012029</v>
       </c>
       <c r="N25">
-        <v>17.33187394586058</v>
+        <v>11.61783567902425</v>
       </c>
       <c r="O25">
-        <v>22.2644684393515</v>
+        <v>15.31902218203587</v>
       </c>
     </row>
   </sheetData>
